--- a/data/pca/factorExposure/factorExposure_2010-06-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-06-25.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01483160769881101</v>
+        <v>-0.016304247128236</v>
       </c>
       <c r="C2">
-        <v>-0.003939576792796978</v>
+        <v>-0.0007529054797403971</v>
       </c>
       <c r="D2">
-        <v>0.01184663638977595</v>
+        <v>0.007857947406069557</v>
       </c>
       <c r="E2">
-        <v>-0.007682339350537542</v>
+        <v>-0.002161538566928544</v>
       </c>
       <c r="F2">
-        <v>-0.03121127104273897</v>
+        <v>-0.01305425252169995</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1216122555071937</v>
+        <v>-0.09504252012814252</v>
       </c>
       <c r="C4">
-        <v>-0.106013221122387</v>
+        <v>-0.01780728180275019</v>
       </c>
       <c r="D4">
-        <v>-0.004616323173933783</v>
+        <v>0.08118719583345441</v>
       </c>
       <c r="E4">
-        <v>0.1675619240519472</v>
+        <v>0.02740526209525124</v>
       </c>
       <c r="F4">
-        <v>-0.04784964080732219</v>
+        <v>0.040642645801083</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1314060285972278</v>
+        <v>-0.1521326004194238</v>
       </c>
       <c r="C6">
-        <v>-0.06711765912565899</v>
+        <v>-0.02477164807080577</v>
       </c>
       <c r="D6">
-        <v>0.001434443740951777</v>
+        <v>-0.02278603609733234</v>
       </c>
       <c r="E6">
-        <v>0.06497952953634116</v>
+        <v>0.01372425605177463</v>
       </c>
       <c r="F6">
-        <v>0.0007438217030047681</v>
+        <v>0.03949943744137124</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.07513415145387543</v>
+        <v>-0.06229516157497583</v>
       </c>
       <c r="C7">
-        <v>-0.08003695996377803</v>
+        <v>-0.0003989884194586906</v>
       </c>
       <c r="D7">
-        <v>0.01165067274504439</v>
+        <v>0.05195596960173059</v>
       </c>
       <c r="E7">
-        <v>0.01295434930719452</v>
+        <v>0.01286261382214515</v>
       </c>
       <c r="F7">
-        <v>0.007947652671337766</v>
+        <v>0.05787491854274811</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.0403799789853257</v>
+        <v>-0.05942285108708884</v>
       </c>
       <c r="C8">
-        <v>-0.01565397887026458</v>
+        <v>0.01267448834953179</v>
       </c>
       <c r="D8">
-        <v>0.008290824018150841</v>
+        <v>0.02766137727125738</v>
       </c>
       <c r="E8">
-        <v>0.09573039020754381</v>
+        <v>0.01196249541318035</v>
       </c>
       <c r="F8">
-        <v>-0.05349060481532359</v>
+        <v>-0.02157117460220789</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.0867343895016434</v>
+        <v>-0.07252217158870644</v>
       </c>
       <c r="C9">
-        <v>-0.07923510319823071</v>
+        <v>-0.01438095584565873</v>
       </c>
       <c r="D9">
-        <v>-0.02226775200447672</v>
+        <v>0.07901915383432875</v>
       </c>
       <c r="E9">
-        <v>0.1342540818971278</v>
+        <v>0.0203592762529071</v>
       </c>
       <c r="F9">
-        <v>-0.03999118096207063</v>
+        <v>0.06148572965602055</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.1360822103577238</v>
+        <v>-0.09170843075557535</v>
       </c>
       <c r="C10">
-        <v>0.1782295306874839</v>
+        <v>-0.01369951426086065</v>
       </c>
       <c r="D10">
-        <v>0.001026548858605921</v>
+        <v>-0.1735801972048392</v>
       </c>
       <c r="E10">
-        <v>-0.02573916820995939</v>
+        <v>-0.03488568234807645</v>
       </c>
       <c r="F10">
-        <v>0.02432064505687256</v>
+        <v>-0.04978291616319661</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.06636484508774686</v>
+        <v>-0.08861598128624641</v>
       </c>
       <c r="C11">
-        <v>-0.06089952902856595</v>
+        <v>-0.01365085987428064</v>
       </c>
       <c r="D11">
-        <v>-0.04693678138194827</v>
+        <v>0.1103597074105288</v>
       </c>
       <c r="E11">
-        <v>0.09246501325475148</v>
+        <v>0.04070311581486172</v>
       </c>
       <c r="F11">
-        <v>-0.02950636767392132</v>
+        <v>0.02654674429529721</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.07205738767149349</v>
+        <v>-0.09366251814144347</v>
       </c>
       <c r="C12">
-        <v>-0.06918030054617978</v>
+        <v>-0.01130479560996527</v>
       </c>
       <c r="D12">
-        <v>-0.05524868598521578</v>
+        <v>0.117027609443843</v>
       </c>
       <c r="E12">
-        <v>0.1115603786972796</v>
+        <v>0.03925416986960389</v>
       </c>
       <c r="F12">
-        <v>0.009273217915499938</v>
+        <v>0.0288674271967359</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04253601435948238</v>
+        <v>-0.04437621668366844</v>
       </c>
       <c r="C13">
-        <v>-0.03778125369101831</v>
+        <v>-0.004821204035741826</v>
       </c>
       <c r="D13">
-        <v>0.0251419314024738</v>
+        <v>0.04360192791317823</v>
       </c>
       <c r="E13">
-        <v>0.04083825283497971</v>
+        <v>-0.01406326589224435</v>
       </c>
       <c r="F13">
-        <v>-0.01839372881456603</v>
+        <v>0.02081538090459286</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.03921519107092319</v>
+        <v>-0.02177642586335571</v>
       </c>
       <c r="C14">
-        <v>-0.03761204960551354</v>
+        <v>-0.01506067220259511</v>
       </c>
       <c r="D14">
-        <v>-0.01185371446463989</v>
+        <v>0.0293330320008384</v>
       </c>
       <c r="E14">
-        <v>0.0620979361050986</v>
+        <v>0.0151070640264582</v>
       </c>
       <c r="F14">
-        <v>-0.02062342045328288</v>
+        <v>0.02715274612168643</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.02372954525662765</v>
+        <v>-0.03252340814924226</v>
       </c>
       <c r="C15">
-        <v>-0.01589154247650763</v>
+        <v>-0.006170535687900654</v>
       </c>
       <c r="D15">
-        <v>0.07018797411899204</v>
+        <v>0.04122789406378958</v>
       </c>
       <c r="E15">
-        <v>0.01543630340245414</v>
+        <v>0.007008827796687081</v>
       </c>
       <c r="F15">
-        <v>-0.03637444870598372</v>
+        <v>0.03446348977117811</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07870789543478814</v>
+        <v>-0.07551482877506012</v>
       </c>
       <c r="C16">
-        <v>-0.07654844282542739</v>
+        <v>-0.005181036085344455</v>
       </c>
       <c r="D16">
-        <v>-0.04275366682306446</v>
+        <v>0.1147685571364818</v>
       </c>
       <c r="E16">
-        <v>0.09324604431739621</v>
+        <v>0.05652403696276975</v>
       </c>
       <c r="F16">
-        <v>0.001489473078553106</v>
+        <v>0.03556400436993476</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.0175124255041584</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003984283271243889</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.02137907152770148</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-0.01021054264358786</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.02569612927768543</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.04665668152280781</v>
+        <v>-0.06118903323228727</v>
       </c>
       <c r="C20">
-        <v>-0.02492321423027981</v>
+        <v>-0.002992240776618522</v>
       </c>
       <c r="D20">
-        <v>0.0309201708738792</v>
+        <v>0.06839769959119862</v>
       </c>
       <c r="E20">
-        <v>0.08059103865265271</v>
+        <v>0.04995015403603466</v>
       </c>
       <c r="F20">
-        <v>0.004606561364109862</v>
+        <v>0.03147472952810038</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03611939184370943</v>
+        <v>-0.0380904782122001</v>
       </c>
       <c r="C21">
-        <v>-0.02588442824332432</v>
+        <v>-0.008135976492793026</v>
       </c>
       <c r="D21">
-        <v>-0.02488890604799196</v>
+        <v>0.03402899330179679</v>
       </c>
       <c r="E21">
-        <v>0.06813531189025843</v>
+        <v>-0.01285478340659332</v>
       </c>
       <c r="F21">
-        <v>-0.01892622409254621</v>
+        <v>-0.01844441471846857</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.05668451334717492</v>
+        <v>-0.04252862381897966</v>
       </c>
       <c r="C22">
-        <v>0.005696414461466512</v>
+        <v>-0.000780611873551568</v>
       </c>
       <c r="D22">
-        <v>0.6486049422849383</v>
+        <v>-0.0009163954250457026</v>
       </c>
       <c r="E22">
-        <v>0.02386227080772891</v>
+        <v>0.03278254062000832</v>
       </c>
       <c r="F22">
-        <v>0.1134861637454132</v>
+        <v>-0.02241772715411376</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.0575255572559534</v>
+        <v>-0.04260136976971634</v>
       </c>
       <c r="C23">
-        <v>0.004077171031493329</v>
+        <v>-0.0008107018123683058</v>
       </c>
       <c r="D23">
-        <v>0.650943459683511</v>
+        <v>-0.0007074471209022979</v>
       </c>
       <c r="E23">
-        <v>0.029418397698549</v>
+        <v>0.033185729293496</v>
       </c>
       <c r="F23">
-        <v>0.1130998308269006</v>
+        <v>-0.02183604272673193</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.07695522326324052</v>
+        <v>-0.08184306578148468</v>
       </c>
       <c r="C24">
-        <v>-0.07483436766072173</v>
+        <v>-0.005373110268290873</v>
       </c>
       <c r="D24">
-        <v>-0.03535303329786247</v>
+        <v>0.1152311312783703</v>
       </c>
       <c r="E24">
-        <v>0.09701061230622078</v>
+        <v>0.04485455301874502</v>
       </c>
       <c r="F24">
-        <v>-0.006605955608644293</v>
+        <v>0.02775078541555779</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.07634192897985705</v>
+        <v>-0.0863368002003399</v>
       </c>
       <c r="C25">
-        <v>-0.05734649747392387</v>
+        <v>-0.0075900465201936</v>
       </c>
       <c r="D25">
-        <v>-0.05979051895462098</v>
+        <v>0.1007514911233632</v>
       </c>
       <c r="E25">
-        <v>0.100179753679988</v>
+        <v>0.02615718798948098</v>
       </c>
       <c r="F25">
-        <v>-0.007071041283101424</v>
+        <v>0.03664382492474287</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.0414277697031969</v>
+        <v>-0.05634223250765507</v>
       </c>
       <c r="C26">
-        <v>-0.01243501387153377</v>
+        <v>-0.01541861328039914</v>
       </c>
       <c r="D26">
-        <v>0.01407326719713424</v>
+        <v>0.03169651038929946</v>
       </c>
       <c r="E26">
-        <v>0.07712036015893421</v>
+        <v>0.02364261554995226</v>
       </c>
       <c r="F26">
-        <v>0.05007734035384979</v>
+        <v>9.677690000917451e-05</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1569709210335731</v>
+        <v>-0.1383972422515465</v>
       </c>
       <c r="C28">
-        <v>0.2685701446079422</v>
+        <v>-0.01101551027850291</v>
       </c>
       <c r="D28">
-        <v>-0.02059889244190036</v>
+        <v>-0.273000898229479</v>
       </c>
       <c r="E28">
-        <v>0.03179873068472507</v>
+        <v>-0.06672967374332769</v>
       </c>
       <c r="F28">
-        <v>-0.005488635655185578</v>
+        <v>0.04388947495602967</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.03849446277934242</v>
+        <v>-0.0269457623288517</v>
       </c>
       <c r="C29">
-        <v>-0.0321821881004257</v>
+        <v>-0.009235491088009801</v>
       </c>
       <c r="D29">
-        <v>-0.01603592490700979</v>
+        <v>0.02816957283392086</v>
       </c>
       <c r="E29">
-        <v>0.06315506846280695</v>
+        <v>0.00784394394480273</v>
       </c>
       <c r="F29">
-        <v>-0.01518941185097264</v>
+        <v>-0.006324454656080781</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.07901109998894598</v>
+        <v>-0.06418744196689763</v>
       </c>
       <c r="C30">
-        <v>-0.06074209966640857</v>
+        <v>-0.00749852267162834</v>
       </c>
       <c r="D30">
-        <v>-0.02004801976252572</v>
+        <v>0.07623134250890572</v>
       </c>
       <c r="E30">
-        <v>0.2537208920976228</v>
+        <v>0.01929201214587074</v>
       </c>
       <c r="F30">
-        <v>0.1189410803722338</v>
+        <v>0.1215616307480199</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02688018948966395</v>
+        <v>-0.04831609551734645</v>
       </c>
       <c r="C31">
-        <v>-0.05700786844921812</v>
+        <v>-0.01524995696422717</v>
       </c>
       <c r="D31">
-        <v>0.003745203202951279</v>
+        <v>0.02854006725905036</v>
       </c>
       <c r="E31">
-        <v>0.04084167947116907</v>
+        <v>0.02626836416110797</v>
       </c>
       <c r="F31">
-        <v>-0.01599951776169312</v>
+        <v>-0.002153367250715188</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.05060828340971054</v>
+        <v>-0.04875050286000075</v>
       </c>
       <c r="C32">
-        <v>-0.01379094479222926</v>
+        <v>-0.001207349862536272</v>
       </c>
       <c r="D32">
-        <v>-0.0458705249188434</v>
+        <v>0.02626970458257109</v>
       </c>
       <c r="E32">
-        <v>0.03067081499761691</v>
+        <v>0.02477765389554785</v>
       </c>
       <c r="F32">
-        <v>-0.095723793019173</v>
+        <v>0.005077499531623045</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09766505477132728</v>
+        <v>-0.09192858327438022</v>
       </c>
       <c r="C33">
-        <v>-0.0797468084326477</v>
+        <v>-0.01064238963997268</v>
       </c>
       <c r="D33">
-        <v>-0.02072287902968844</v>
+        <v>0.09018073723185499</v>
       </c>
       <c r="E33">
-        <v>0.06607796611098041</v>
+        <v>0.0433127795559189</v>
       </c>
       <c r="F33">
-        <v>0.01152864379548809</v>
+        <v>0.0427932947919701</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06667711261305884</v>
+        <v>-0.06896657321823785</v>
       </c>
       <c r="C34">
-        <v>-0.0532389328369178</v>
+        <v>-0.01328029158909391</v>
       </c>
       <c r="D34">
-        <v>-0.04578587647588524</v>
+        <v>0.09438331481352415</v>
       </c>
       <c r="E34">
-        <v>0.08864323002144935</v>
+        <v>0.027379890191171</v>
       </c>
       <c r="F34">
-        <v>-0.01464237976261032</v>
+        <v>0.05243760512129739</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.01781304849344733</v>
+        <v>-0.02435636982253578</v>
       </c>
       <c r="C35">
-        <v>-0.01768515795881614</v>
+        <v>-0.002740353379782284</v>
       </c>
       <c r="D35">
-        <v>-0.0005621864327348177</v>
+        <v>0.01050141959594329</v>
       </c>
       <c r="E35">
-        <v>0.03469265692274023</v>
+        <v>0.01149903944362536</v>
       </c>
       <c r="F35">
-        <v>-0.00400313641383288</v>
+        <v>0.01190369258987164</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02630938161528165</v>
+        <v>-0.02599802630070906</v>
       </c>
       <c r="C36">
-        <v>-0.01943906045140488</v>
+        <v>-0.006998227456121035</v>
       </c>
       <c r="D36">
-        <v>0.01360950969362919</v>
+        <v>0.03797259112864022</v>
       </c>
       <c r="E36">
-        <v>0.08588793119726056</v>
+        <v>0.01593120537922146</v>
       </c>
       <c r="F36">
-        <v>0.003488228719087454</v>
+        <v>0.01372298134736763</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.02398053160480751</v>
+        <v>-0.003011613969399329</v>
       </c>
       <c r="C38">
-        <v>-0.05006308110228445</v>
+        <v>-0.0005657177086325645</v>
       </c>
       <c r="D38">
-        <v>0.02910690434632348</v>
+        <v>0.003262629934093101</v>
       </c>
       <c r="E38">
-        <v>-0.1020171701792961</v>
+        <v>0.004250502845139448</v>
       </c>
       <c r="F38">
-        <v>0.08338931351208652</v>
+        <v>-0.003194006305031116</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.09754840194882881</v>
+        <v>-0.1117806968184171</v>
       </c>
       <c r="C39">
-        <v>-0.08976024356713157</v>
+        <v>-0.01942036138588668</v>
       </c>
       <c r="D39">
-        <v>-0.1314764035507504</v>
+        <v>0.1470773710784503</v>
       </c>
       <c r="E39">
-        <v>0.1465875503655912</v>
+        <v>0.04907993603701873</v>
       </c>
       <c r="F39">
-        <v>0.1070221172180175</v>
+        <v>0.03881853664664137</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.02867249581048283</v>
+        <v>-0.0373280307211399</v>
       </c>
       <c r="C40">
-        <v>-0.05975891920562546</v>
+        <v>-0.007678121618910769</v>
       </c>
       <c r="D40">
-        <v>0.02503568793877197</v>
+        <v>0.02876768895837519</v>
       </c>
       <c r="E40">
-        <v>0.05479831112497864</v>
+        <v>0.001489181115808574</v>
       </c>
       <c r="F40">
-        <v>-0.07482878113898522</v>
+        <v>-0.01708169932021311</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.03358957286069048</v>
+        <v>-0.02623424822089314</v>
       </c>
       <c r="C41">
-        <v>-0.02510641411928235</v>
+        <v>-0.006829392572563982</v>
       </c>
       <c r="D41">
-        <v>-0.0198218691731602</v>
+        <v>0.01119891212800541</v>
       </c>
       <c r="E41">
-        <v>0.001568821209219919</v>
+        <v>0.01119687126598497</v>
       </c>
       <c r="F41">
-        <v>0.02392616277083989</v>
+        <v>-0.0123159658264859</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04654709647434687</v>
+        <v>-0.04299340861169897</v>
       </c>
       <c r="C43">
-        <v>-0.04677806151839497</v>
+        <v>-0.007202710014252995</v>
       </c>
       <c r="D43">
-        <v>0.01037175164608218</v>
+        <v>0.02190029640035439</v>
       </c>
       <c r="E43">
-        <v>0.0163819345999234</v>
+        <v>0.02609676998342606</v>
       </c>
       <c r="F43">
-        <v>0.05138161745755616</v>
+        <v>-0.01117743511272955</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.09696798763937527</v>
+        <v>-0.07383474559487116</v>
       </c>
       <c r="C44">
-        <v>-0.08704014253041371</v>
+        <v>-0.02381184293973106</v>
       </c>
       <c r="D44">
-        <v>0.07334521577506473</v>
+        <v>0.09992681336391865</v>
       </c>
       <c r="E44">
-        <v>0.1077747695324613</v>
+        <v>0.06399566042126485</v>
       </c>
       <c r="F44">
-        <v>-0.04547866133444177</v>
+        <v>0.1782131892896379</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.03761677080499804</v>
+        <v>-0.0237602081314026</v>
       </c>
       <c r="C46">
-        <v>-0.03792661949101046</v>
+        <v>-0.004219335720092064</v>
       </c>
       <c r="D46">
-        <v>0.04363809300928973</v>
+        <v>0.01229251313126063</v>
       </c>
       <c r="E46">
-        <v>0.04066901675618376</v>
+        <v>0.02212449673459627</v>
       </c>
       <c r="F46">
-        <v>-0.03906302560773035</v>
+        <v>-0.001705508724783935</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05488108322150242</v>
+        <v>-0.0528809705389863</v>
       </c>
       <c r="C47">
-        <v>-0.04715706814376144</v>
+        <v>-0.003480350753152524</v>
       </c>
       <c r="D47">
-        <v>-0.0006056417470243464</v>
+        <v>0.01253553009645285</v>
       </c>
       <c r="E47">
-        <v>0.02227865023407355</v>
+        <v>0.02319742894469997</v>
       </c>
       <c r="F47">
-        <v>0.01988046083276923</v>
+        <v>-0.04672113323323427</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04526673804114671</v>
+        <v>-0.04799856458465826</v>
       </c>
       <c r="C48">
-        <v>-0.01549080019014959</v>
+        <v>-0.003312898840625776</v>
       </c>
       <c r="D48">
-        <v>-0.01365296364343459</v>
+        <v>0.044511148027956</v>
       </c>
       <c r="E48">
-        <v>0.0912498325597816</v>
+        <v>-0.00894314899328448</v>
       </c>
       <c r="F48">
-        <v>-0.0402572055331407</v>
+        <v>0.01890023691730085</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2341112793897868</v>
+        <v>-0.2062727002146002</v>
       </c>
       <c r="C49">
-        <v>-0.04563208545447874</v>
+        <v>-0.01719926134441641</v>
       </c>
       <c r="D49">
-        <v>-0.02437841248261281</v>
+        <v>-0.006004422734489964</v>
       </c>
       <c r="E49">
-        <v>-0.3130491487313831</v>
+        <v>0.04234293966071543</v>
       </c>
       <c r="F49">
-        <v>0.0205216989781284</v>
+        <v>0.03441560787123887</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.03614483387557593</v>
+        <v>-0.04873843853850962</v>
       </c>
       <c r="C50">
-        <v>-0.05062441520266322</v>
+        <v>-0.01146464107556277</v>
       </c>
       <c r="D50">
-        <v>-0.01208223101221121</v>
+        <v>0.02664908418245734</v>
       </c>
       <c r="E50">
-        <v>0.06094550923398417</v>
+        <v>0.02851544188868339</v>
       </c>
       <c r="F50">
-        <v>0.02026911541420903</v>
+        <v>0.006827565871762355</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.02845004701548954</v>
+        <v>-0.003319117433979652</v>
       </c>
       <c r="C51">
-        <v>-0.001727614237106976</v>
+        <v>-0.0007918156271078229</v>
       </c>
       <c r="D51">
-        <v>-0.0007846244961409904</v>
+        <v>-0.001569659336773336</v>
       </c>
       <c r="E51">
-        <v>-0.05111441556452231</v>
+        <v>0.001364766524925436</v>
       </c>
       <c r="F51">
-        <v>-0.007317523327742364</v>
+        <v>0.004511972226081815</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.03144549705401386</v>
+        <v>-0.1415970889200702</v>
       </c>
       <c r="C52">
-        <v>-0.02126356660691995</v>
+        <v>-0.01276617461655495</v>
       </c>
       <c r="D52">
-        <v>-0.02150138535191925</v>
+        <v>0.04969872041790386</v>
       </c>
       <c r="E52">
-        <v>0.009208332695692307</v>
+        <v>0.01653667494834419</v>
       </c>
       <c r="F52">
-        <v>0.02250806505742261</v>
+        <v>0.03062980052765748</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1470400155291986</v>
+        <v>-0.1728540289744577</v>
       </c>
       <c r="C53">
-        <v>-0.0632799928256217</v>
+        <v>-0.01548076446613252</v>
       </c>
       <c r="D53">
-        <v>0.02219802961621892</v>
+        <v>0.01603810023538004</v>
       </c>
       <c r="E53">
-        <v>-0.06699453009337426</v>
+        <v>0.03896513128068931</v>
       </c>
       <c r="F53">
-        <v>0.08278445165577519</v>
+        <v>0.05977657820225236</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.06236663615773593</v>
+        <v>-0.0223080901628577</v>
       </c>
       <c r="C54">
-        <v>-0.04364793891661656</v>
+        <v>-0.01291264938226227</v>
       </c>
       <c r="D54">
-        <v>8.198071733800287e-05</v>
+        <v>0.03047324809946304</v>
       </c>
       <c r="E54">
-        <v>0.1378537617895061</v>
+        <v>0.01418187832010443</v>
       </c>
       <c r="F54">
-        <v>-0.04800955371536073</v>
+        <v>0.0003081347211029815</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08314741486018935</v>
+        <v>-0.1144039472025749</v>
       </c>
       <c r="C55">
-        <v>-0.0601354155213541</v>
+        <v>-0.01454004391172243</v>
       </c>
       <c r="D55">
-        <v>-0.03079184688147906</v>
+        <v>0.01518773366176293</v>
       </c>
       <c r="E55">
-        <v>-0.01424018774343208</v>
+        <v>0.03073210600883088</v>
       </c>
       <c r="F55">
-        <v>0.02260140478255011</v>
+        <v>0.04695246366950611</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1401375337484252</v>
+        <v>-0.177803449605155</v>
       </c>
       <c r="C56">
-        <v>-0.09998385570358116</v>
+        <v>-0.01310858590006964</v>
       </c>
       <c r="D56">
-        <v>-0.0130832898344326</v>
+        <v>0.01204821685077911</v>
       </c>
       <c r="E56">
-        <v>-0.03685424156011623</v>
+        <v>0.04323087787510906</v>
       </c>
       <c r="F56">
-        <v>0.05875072139101457</v>
+        <v>0.02912311897760168</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.02968940598607246</v>
+        <v>-0.04716822522673832</v>
       </c>
       <c r="C58">
-        <v>-0.03595107835889712</v>
+        <v>-0.003451318045472775</v>
       </c>
       <c r="D58">
-        <v>0.03043962795077663</v>
+        <v>0.06364334726338272</v>
       </c>
       <c r="E58">
-        <v>0.03782582647715305</v>
+        <v>0.01417274950869623</v>
       </c>
       <c r="F58">
-        <v>0.0208028169118662</v>
+        <v>-0.04287364047996986</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.2157185608845622</v>
+        <v>-0.1701501454015469</v>
       </c>
       <c r="C59">
-        <v>0.2333339021230929</v>
+        <v>-0.01281546493508927</v>
       </c>
       <c r="D59">
-        <v>-0.05921229499071012</v>
+        <v>-0.2309204696053727</v>
       </c>
       <c r="E59">
-        <v>-0.01155998308719206</v>
+        <v>-0.04774713212989128</v>
       </c>
       <c r="F59">
-        <v>-0.04098552489155824</v>
+        <v>-0.03097298898287982</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2326834111387289</v>
+        <v>-0.2395884620942774</v>
       </c>
       <c r="C60">
-        <v>-0.1412726267587681</v>
+        <v>0.004047198286891989</v>
       </c>
       <c r="D60">
-        <v>-0.07046586194724423</v>
+        <v>0.05178595184105163</v>
       </c>
       <c r="E60">
-        <v>-0.1132944929615821</v>
+        <v>0.01277298877497419</v>
       </c>
       <c r="F60">
-        <v>-0.009864560012848198</v>
+        <v>-0.04295919797105129</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.0945187630608956</v>
+        <v>-0.08571595746101128</v>
       </c>
       <c r="C61">
-        <v>-0.0738845383867037</v>
+        <v>-0.01485462382529143</v>
       </c>
       <c r="D61">
-        <v>-0.07681403062706542</v>
+        <v>0.107042906251913</v>
       </c>
       <c r="E61">
-        <v>0.1391501283411515</v>
+        <v>0.03327025124400955</v>
       </c>
       <c r="F61">
-        <v>0.03517386648402436</v>
+        <v>0.02540662478551112</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.129542463856479</v>
+        <v>-0.1689886674447886</v>
       </c>
       <c r="C62">
-        <v>-0.07194168161459413</v>
+        <v>-0.01717359056026697</v>
       </c>
       <c r="D62">
-        <v>0.008333287698642495</v>
+        <v>0.01332553639493492</v>
       </c>
       <c r="E62">
-        <v>-0.06835822389852794</v>
+        <v>0.03901208050727126</v>
       </c>
       <c r="F62">
-        <v>0.05510899003092754</v>
+        <v>0.01145839497479947</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04907074320040547</v>
+        <v>-0.04268961041973871</v>
       </c>
       <c r="C63">
-        <v>-0.02348037940970215</v>
+        <v>-0.004363688594371951</v>
       </c>
       <c r="D63">
-        <v>-0.01311331384901425</v>
+        <v>0.04683090664559748</v>
       </c>
       <c r="E63">
-        <v>0.0785607106521635</v>
+        <v>0.01382732043705855</v>
       </c>
       <c r="F63">
-        <v>0.01348240837544939</v>
+        <v>0.01116315426977627</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.09426275093995611</v>
+        <v>-0.1119770556423478</v>
       </c>
       <c r="C64">
-        <v>-0.05678782040303181</v>
+        <v>-0.0120738966638367</v>
       </c>
       <c r="D64">
-        <v>-0.002561262069418984</v>
+        <v>0.03889550158789397</v>
       </c>
       <c r="E64">
-        <v>0.07094543354980015</v>
+        <v>0.01899272274438804</v>
       </c>
       <c r="F64">
-        <v>0.02903288244802687</v>
+        <v>0.01718617449265803</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1199364403731221</v>
+        <v>-0.142965905035309</v>
       </c>
       <c r="C65">
-        <v>-0.04210217284073799</v>
+        <v>-0.03090681884903232</v>
       </c>
       <c r="D65">
-        <v>-0.01384802827690155</v>
+        <v>-0.046463226390814</v>
       </c>
       <c r="E65">
-        <v>0.08316777510617725</v>
+        <v>0.003032213869277256</v>
       </c>
       <c r="F65">
-        <v>0.04039819458877639</v>
+        <v>0.04229695359179222</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1088815351389918</v>
+        <v>-0.1338877794143269</v>
       </c>
       <c r="C66">
-        <v>-0.1210115080815357</v>
+        <v>-0.01693825082496702</v>
       </c>
       <c r="D66">
-        <v>-0.1171192164786397</v>
+        <v>0.1341782770652481</v>
       </c>
       <c r="E66">
-        <v>0.1128332317149471</v>
+        <v>0.05838919976738458</v>
       </c>
       <c r="F66">
-        <v>0.1101895669347878</v>
+        <v>0.04406266050477302</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.08071788077293804</v>
+        <v>-0.06564969966886926</v>
       </c>
       <c r="C67">
-        <v>-0.05785569329251437</v>
+        <v>-0.004567313746429738</v>
       </c>
       <c r="D67">
-        <v>0.03714022419628654</v>
+        <v>0.05459448474165358</v>
       </c>
       <c r="E67">
-        <v>-0.09619443442465452</v>
+        <v>0.02018003212787645</v>
       </c>
       <c r="F67">
-        <v>0.1160214100886071</v>
+        <v>-0.04312578875261661</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1316271937120531</v>
+        <v>-0.1114108110278344</v>
       </c>
       <c r="C68">
-        <v>0.264481768090737</v>
+        <v>-0.02176017443025972</v>
       </c>
       <c r="D68">
-        <v>-0.03064978712221651</v>
+        <v>-0.2710965408884945</v>
       </c>
       <c r="E68">
-        <v>0.05558921877421754</v>
+        <v>-0.08601110287264184</v>
       </c>
       <c r="F68">
-        <v>0.009854318345335154</v>
+        <v>0.04963042891276531</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.0425504731290292</v>
+        <v>-0.04060125097048479</v>
       </c>
       <c r="C69">
-        <v>-0.01477887007950406</v>
+        <v>-0.001215831374105991</v>
       </c>
       <c r="D69">
-        <v>0.003217559976831703</v>
+        <v>0.008774411502491147</v>
       </c>
       <c r="E69">
-        <v>0.005778767229188207</v>
+        <v>0.02625266980212348</v>
       </c>
       <c r="F69">
-        <v>0.03636059930637329</v>
+        <v>-0.01617755292421501</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.05116354671800873</v>
+        <v>-0.06440023618940258</v>
       </c>
       <c r="C70">
-        <v>-0.05817506228525977</v>
+        <v>0.0270999854625817</v>
       </c>
       <c r="D70">
-        <v>-0.02657364007966854</v>
+        <v>0.02202739791879177</v>
       </c>
       <c r="E70">
-        <v>0.049708702560013</v>
+        <v>-0.04395618963793505</v>
       </c>
       <c r="F70">
-        <v>0.01437259078011654</v>
+        <v>-0.3392891364969599</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1502073926900444</v>
+        <v>-0.1307149799149938</v>
       </c>
       <c r="C71">
-        <v>0.2736469391223451</v>
+        <v>-0.02585050951673293</v>
       </c>
       <c r="D71">
-        <v>-0.02581772052199621</v>
+        <v>-0.2871703706105896</v>
       </c>
       <c r="E71">
-        <v>0.06237954253916807</v>
+        <v>-0.0935823317831531</v>
       </c>
       <c r="F71">
-        <v>0.02227783875071283</v>
+        <v>0.05098186458380784</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1263147544436191</v>
+        <v>-0.1377540081495355</v>
       </c>
       <c r="C72">
-        <v>-0.02175685727363795</v>
+        <v>-0.02389023426535652</v>
       </c>
       <c r="D72">
-        <v>-6.851389531794443e-05</v>
+        <v>0.006675995045442459</v>
       </c>
       <c r="E72">
-        <v>0.03156811676771225</v>
+        <v>0.04214916711140082</v>
       </c>
       <c r="F72">
-        <v>0.05444069623271763</v>
+        <v>0.02393791610700367</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2233931224128418</v>
+        <v>-0.208872909608416</v>
       </c>
       <c r="C73">
-        <v>-0.1046348988521375</v>
+        <v>-0.01159235326266572</v>
       </c>
       <c r="D73">
-        <v>-0.118987259464599</v>
+        <v>0.02098000001012456</v>
       </c>
       <c r="E73">
-        <v>-0.5216638741003143</v>
+        <v>0.06952592295441185</v>
       </c>
       <c r="F73">
-        <v>0.1260690628432744</v>
+        <v>0.02457051614944924</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09223360005881917</v>
+        <v>-0.0938657381389567</v>
       </c>
       <c r="C74">
-        <v>-0.08690091062759678</v>
+        <v>-0.01174238411696995</v>
       </c>
       <c r="D74">
-        <v>0.001597707387862617</v>
+        <v>0.02650839493528942</v>
       </c>
       <c r="E74">
-        <v>-0.04784805712677774</v>
+        <v>0.05088100085665941</v>
       </c>
       <c r="F74">
-        <v>0.0990104589428597</v>
+        <v>0.04117002061371158</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.09299950595318469</v>
+        <v>-0.1304300136377195</v>
       </c>
       <c r="C75">
-        <v>-0.06738402828547611</v>
+        <v>-0.02624401180641046</v>
       </c>
       <c r="D75">
-        <v>0.0004974119842381121</v>
+        <v>0.03550569285180871</v>
       </c>
       <c r="E75">
-        <v>-0.00300158939875293</v>
+        <v>0.06052043247212477</v>
       </c>
       <c r="F75">
-        <v>0.01094675172690233</v>
+        <v>0.008341728318790776</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.06539822447292086</v>
+        <v>-0.00797988061478749</v>
       </c>
       <c r="C76">
-        <v>-0.06774597145324503</v>
+        <v>-0.001785435529324456</v>
       </c>
       <c r="D76">
-        <v>0.008871308891338883</v>
+        <v>0.003180578947820962</v>
       </c>
       <c r="E76">
-        <v>-0.05539102984824474</v>
+        <v>0.008169382010687948</v>
       </c>
       <c r="F76">
-        <v>0.01425574833216072</v>
+        <v>0.003471450124106073</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.06601644167599749</v>
+        <v>-0.08073314455390025</v>
       </c>
       <c r="C77">
-        <v>-0.02848704580388175</v>
+        <v>-0.01168377474600405</v>
       </c>
       <c r="D77">
-        <v>-0.04202100931456854</v>
+        <v>0.1036801255316796</v>
       </c>
       <c r="E77">
-        <v>0.1938790058257808</v>
+        <v>0.03080068496929023</v>
       </c>
       <c r="F77">
-        <v>-0.06354859876499055</v>
+        <v>0.03585520498525219</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1754272996027066</v>
+        <v>-0.1098707242835956</v>
       </c>
       <c r="C78">
-        <v>-0.1738028245808618</v>
+        <v>-0.04427053820342283</v>
       </c>
       <c r="D78">
-        <v>0.1642270859067174</v>
+        <v>0.1202563938624942</v>
       </c>
       <c r="E78">
-        <v>0.0533532601563012</v>
+        <v>0.0908322018189511</v>
       </c>
       <c r="F78">
-        <v>-0.6441091170927989</v>
+        <v>0.07337367595360945</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1289610410235745</v>
+        <v>-0.1625929955972009</v>
       </c>
       <c r="C79">
-        <v>-0.08357111649481751</v>
+        <v>-0.02020631795594807</v>
       </c>
       <c r="D79">
-        <v>0.01446728393456385</v>
+        <v>0.0208844057141372</v>
       </c>
       <c r="E79">
-        <v>-0.01342547148195457</v>
+        <v>0.04942781393598192</v>
       </c>
       <c r="F79">
-        <v>0.03899673804448323</v>
+        <v>0.005036926172240777</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.07196823807549395</v>
+        <v>-0.08034014255396274</v>
       </c>
       <c r="C80">
-        <v>-0.05252264163420712</v>
+        <v>0.0007825206085314406</v>
       </c>
       <c r="D80">
-        <v>-0.08115996447676786</v>
+        <v>0.05759553583804473</v>
       </c>
       <c r="E80">
-        <v>0.05664504747364434</v>
+        <v>0.0299734390374867</v>
       </c>
       <c r="F80">
-        <v>0.05310261085109343</v>
+        <v>-0.0117455347144144</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1266847407502111</v>
+        <v>-0.1224448790778703</v>
       </c>
       <c r="C81">
-        <v>-0.06282684269510261</v>
+        <v>-0.03004422791316501</v>
       </c>
       <c r="D81">
-        <v>0.01033838854016088</v>
+        <v>0.02202471801199684</v>
       </c>
       <c r="E81">
-        <v>0.06784759774512872</v>
+        <v>0.0598850363941739</v>
       </c>
       <c r="F81">
-        <v>0.04059430152763322</v>
+        <v>-0.002535696218159049</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.118472485216148</v>
+        <v>-0.1619403649873243</v>
       </c>
       <c r="C82">
-        <v>-0.06297843765465014</v>
+        <v>-0.02043862566342973</v>
       </c>
       <c r="D82">
-        <v>-0.004160266998430869</v>
+        <v>0.01883332659893247</v>
       </c>
       <c r="E82">
-        <v>-0.01431912102167137</v>
+        <v>0.03614207688639538</v>
       </c>
       <c r="F82">
-        <v>0.09965540413220307</v>
+        <v>0.0535749041643087</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.07966573718272309</v>
+        <v>-0.0660465060818083</v>
       </c>
       <c r="C83">
-        <v>-0.08579854174450262</v>
+        <v>-0.004297807049354978</v>
       </c>
       <c r="D83">
-        <v>-0.01826473552965034</v>
+        <v>0.04681604260981213</v>
       </c>
       <c r="E83">
-        <v>0.03028894314695635</v>
+        <v>0.00380595741133075</v>
       </c>
       <c r="F83">
-        <v>0.0985996662900491</v>
+        <v>-0.03186601967360296</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.04800665644654507</v>
+        <v>-0.06077509949275992</v>
       </c>
       <c r="C84">
-        <v>0.066229908495328</v>
+        <v>-0.01189764028904333</v>
       </c>
       <c r="D84">
-        <v>-0.04703539864758079</v>
+        <v>0.06057061149948463</v>
       </c>
       <c r="E84">
-        <v>0.01857016683802511</v>
+        <v>-0.004558697307096833</v>
       </c>
       <c r="F84">
-        <v>-0.2214132342395591</v>
+        <v>0.01556645060040925</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1192005201832158</v>
+        <v>-0.1380148808741874</v>
       </c>
       <c r="C85">
-        <v>-0.05280422791118747</v>
+        <v>-0.02552675467838901</v>
       </c>
       <c r="D85">
-        <v>0.003450054588185549</v>
+        <v>0.01679044472709038</v>
       </c>
       <c r="E85">
-        <v>-0.0202761525071272</v>
+        <v>0.0407943003786868</v>
       </c>
       <c r="F85">
-        <v>0.054716935203628</v>
+        <v>0.03986779013204614</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.08866567486372505</v>
+        <v>-0.09971506403243846</v>
       </c>
       <c r="C86">
-        <v>-0.00582701399899027</v>
+        <v>0.006909712782971731</v>
       </c>
       <c r="D86">
-        <v>0.02869496009517501</v>
+        <v>0.01544662217301153</v>
       </c>
       <c r="E86">
-        <v>-0.1782838299943633</v>
+        <v>0.1317647413081152</v>
       </c>
       <c r="F86">
-        <v>-0.5038096214820138</v>
+        <v>-0.8324090389683543</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1219789862169886</v>
+        <v>-0.1006904290608151</v>
       </c>
       <c r="C87">
-        <v>-0.07245089971376739</v>
+        <v>-0.02623451708050172</v>
       </c>
       <c r="D87">
-        <v>0.01087049032205238</v>
+        <v>0.07212899619428415</v>
       </c>
       <c r="E87">
-        <v>0.07302458860103987</v>
+        <v>-0.05404891278991419</v>
       </c>
       <c r="F87">
-        <v>-0.006885519543843564</v>
+        <v>0.09285300068902463</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05712174216967342</v>
+        <v>-0.06159075498403257</v>
       </c>
       <c r="C88">
-        <v>-0.06498516405110494</v>
+        <v>-0.00341402499482121</v>
       </c>
       <c r="D88">
-        <v>-0.03206298798708636</v>
+        <v>0.05528834993191085</v>
       </c>
       <c r="E88">
-        <v>0.01062134151778092</v>
+        <v>0.02635529681459635</v>
       </c>
       <c r="F88">
-        <v>0.02730549684402272</v>
+        <v>0.006506393655086412</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.2333103392333628</v>
+        <v>-0.132447941162089</v>
       </c>
       <c r="C89">
-        <v>0.3699548368318935</v>
+        <v>-0.004682186610668786</v>
       </c>
       <c r="D89">
-        <v>0.03446059126106851</v>
+        <v>-0.271537590408837</v>
       </c>
       <c r="E89">
-        <v>-0.004213373228697896</v>
+        <v>-0.09177394207248551</v>
       </c>
       <c r="F89">
-        <v>-0.04072407886760077</v>
+        <v>0.03159381073906575</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.155892182439659</v>
+        <v>-0.1425190350777086</v>
       </c>
       <c r="C90">
-        <v>0.2586351566840648</v>
+        <v>-0.0212064216981164</v>
       </c>
       <c r="D90">
-        <v>-0.02255987782937331</v>
+        <v>-0.2720629889723487</v>
       </c>
       <c r="E90">
-        <v>0.01519022632181981</v>
+        <v>-0.1043906276687129</v>
       </c>
       <c r="F90">
-        <v>0.01879657485532862</v>
+        <v>0.03652168270294227</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.07204934396179925</v>
+        <v>-0.1166839334267648</v>
       </c>
       <c r="C91">
-        <v>-0.06892097579008244</v>
+        <v>-0.01611233708652525</v>
       </c>
       <c r="D91">
-        <v>0.001819160723929053</v>
+        <v>-0.002481654585026122</v>
       </c>
       <c r="E91">
-        <v>-0.009860519928698533</v>
+        <v>0.0593909480741318</v>
       </c>
       <c r="F91">
-        <v>-0.003523353491614086</v>
+        <v>-0.03021379291395719</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1717668956281309</v>
+        <v>-0.1451082054420373</v>
       </c>
       <c r="C92">
-        <v>0.2917535772742357</v>
+        <v>-0.01262054543760522</v>
       </c>
       <c r="D92">
-        <v>0.01587515867128812</v>
+        <v>-0.3049401049511082</v>
       </c>
       <c r="E92">
-        <v>0.06752103524884794</v>
+        <v>-0.1006998298546567</v>
       </c>
       <c r="F92">
-        <v>-0.02544185964934008</v>
+        <v>0.02798372970026034</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1748055456403375</v>
+        <v>-0.146492190148229</v>
       </c>
       <c r="C93">
-        <v>0.2991794689415292</v>
+        <v>-0.01791049901163235</v>
       </c>
       <c r="D93">
-        <v>-0.05120027549678982</v>
+        <v>-0.2767876755514372</v>
       </c>
       <c r="E93">
-        <v>0.03330568142385821</v>
+        <v>-0.07143075545323495</v>
       </c>
       <c r="F93">
-        <v>-0.003788563158053204</v>
+        <v>0.02720342603031311</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1172362875065093</v>
+        <v>-0.1336140860839822</v>
       </c>
       <c r="C94">
-        <v>-0.08464262476251286</v>
+        <v>-0.02355146689046086</v>
       </c>
       <c r="D94">
-        <v>0.0170351521607954</v>
+        <v>0.04842776210435631</v>
       </c>
       <c r="E94">
-        <v>-0.03270038673689978</v>
+        <v>0.06230657080499907</v>
       </c>
       <c r="F94">
-        <v>0.03956504255081714</v>
+        <v>0.02707315910583635</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1359528107421096</v>
+        <v>-0.1270652913926853</v>
       </c>
       <c r="C95">
-        <v>-0.0678516804033083</v>
+        <v>-0.006426082649269412</v>
       </c>
       <c r="D95">
-        <v>0.008795309457847804</v>
+        <v>0.08979209302782729</v>
       </c>
       <c r="E95">
-        <v>0.06556439298437595</v>
+        <v>0.04060123918334486</v>
       </c>
       <c r="F95">
-        <v>-0.1235208244623971</v>
+        <v>-0.01044095058373249</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.000264263811249212</v>
+        <v>-0.09553085417440541</v>
       </c>
       <c r="C96">
-        <v>-0.001052761110018329</v>
+        <v>0.989317307443211</v>
       </c>
       <c r="D96">
-        <v>-9.365814759257869e-05</v>
+        <v>-0.01541033026499814</v>
       </c>
       <c r="E96">
-        <v>0.001506727186042139</v>
+        <v>0.06035746608427085</v>
       </c>
       <c r="F96">
-        <v>-0.00066867898887507</v>
+        <v>0.05029626338746951</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1220745027626423</v>
+        <v>-0.1882270681420821</v>
       </c>
       <c r="C97">
-        <v>0.03055389684911565</v>
+        <v>0.01211469160952805</v>
       </c>
       <c r="D97">
-        <v>0.02155976120297818</v>
+        <v>-0.0120363177838367</v>
       </c>
       <c r="E97">
-        <v>0.2125046699946111</v>
+        <v>0.01480264879051336</v>
       </c>
       <c r="F97">
-        <v>0.2241507438941907</v>
+        <v>-0.1731143422998899</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2535912577242981</v>
+        <v>-0.2065478688522289</v>
       </c>
       <c r="C98">
-        <v>-0.09454236901535676</v>
+        <v>-0.007003120670324454</v>
       </c>
       <c r="D98">
-        <v>0.08044778810409819</v>
+        <v>0.01378274674000982</v>
       </c>
       <c r="E98">
-        <v>-0.2671187374287584</v>
+        <v>-0.08909825168883592</v>
       </c>
       <c r="F98">
-        <v>0.0363034020189678</v>
+        <v>-0.1368580686961138</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.06961131986052409</v>
+        <v>-0.05773306974604579</v>
       </c>
       <c r="C99">
-        <v>-0.0594764714198454</v>
+        <v>0.002971737409336416</v>
       </c>
       <c r="D99">
-        <v>0.01179218550839207</v>
+        <v>0.03280044469645239</v>
       </c>
       <c r="E99">
-        <v>-0.03380936281417652</v>
+        <v>0.02657050084318828</v>
       </c>
       <c r="F99">
-        <v>0.0005705972858202772</v>
+        <v>0.003789112360294665</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.1231115219793997</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.04820242142480962</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.3243994483500835</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.9051736517908249</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-0.05947661710666993</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.03790179844381662</v>
+        <v>-0.02684667049402099</v>
       </c>
       <c r="C101">
-        <v>-0.03220332454542835</v>
+        <v>-0.00915555163744429</v>
       </c>
       <c r="D101">
-        <v>-0.01679467370757045</v>
+        <v>0.02785508093445117</v>
       </c>
       <c r="E101">
-        <v>0.05992852945384689</v>
+        <v>0.008044608935931624</v>
       </c>
       <c r="F101">
-        <v>-0.01635680637563062</v>
+        <v>-0.008380867299989082</v>
       </c>
     </row>
     <row r="102" spans="1:6">
